--- a/DEE-OPF/E1_Despacho_Economico_Capacidad_Gen_Elastica.xlsx
+++ b/DEE-OPF/E1_Despacho_Economico_Capacidad_Gen_Elastica.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/pm_deoliveiradejes_uniandes_edu_co/Documents/MASEP-OPE/DEE-OPF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{3E8FE161-8E47-C040-B8B7-7C18ECA6F38E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0A18C4DF-D11C-DB4D-B122-91D2B8ED6E5C}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="8_{3E8FE161-8E47-C040-B8B7-7C18ECA6F38E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F2302BEA-6F23-8748-A79F-8797103A1A00}"/>
   <bookViews>
-    <workbookView xWindow="38200" yWindow="1480" windowWidth="31060" windowHeight="19860" activeTab="4" xr2:uid="{4DA1A984-D1F4-6F48-89E4-8555A0E112BF}"/>
+    <workbookView xWindow="36280" yWindow="1080" windowWidth="31060" windowHeight="19860" activeTab="2" xr2:uid="{4DA1A984-D1F4-6F48-89E4-8555A0E112BF}"/>
   </bookViews>
   <sheets>
     <sheet name="database" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="95">
   <si>
     <t>Operación Económica de Sistemas de Potencia</t>
   </si>
@@ -999,6 +999,39 @@
   </si>
   <si>
     <t xml:space="preserve">                                                                        </t>
+  </si>
+  <si>
+    <t>elasticity</t>
+  </si>
+  <si>
+    <t>Demand Utility</t>
+  </si>
+  <si>
+    <r>
+      <t>U(P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Social Welfare</t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1162,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1156,12 +1189,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1180,12 +1207,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1194,6 +1215,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1299,20 +1326,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1321,17 +1342,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1344,16 +1356,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1372,11 +1384,26 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1828,7 +1855,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>440592</xdr:colOff>
+      <xdr:colOff>135792</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>175798</xdr:rowOff>
     </xdr:to>
@@ -2303,7 +2330,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2430,12 +2457,12 @@
       <c r="B16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="28" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="2:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="28" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2451,24 +2478,24 @@
       </c>
     </row>
     <row r="19" spans="2:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="39">
+      <c r="C19" s="34">
         <v>41.666600000000003</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="28" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="20" spans="2:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="39">
+      <c r="C20" s="34">
         <f>4*C19</f>
         <v>166.66640000000001</v>
       </c>
@@ -2481,23 +2508,31 @@
       <c r="B21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="39">
+      <c r="C21" s="34">
         <f>(C19-C20)/C18</f>
         <v>-0.20833300000000002</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H21" s="31" t="s">
+      <c r="H21" s="26" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="22" spans="2:8" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="F22" s="40" t="s">
+      <c r="F22" s="35" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="2">
+        <f>(1/C21)*C19/C18</f>
+        <v>-0.33333333333333326</v>
+      </c>
+    </row>
     <row r="24" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2532,17 +2567,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="21" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2552,66 +2587,66 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="39" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="40" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="22">
         <v>433.33291304326599</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24">
+      <c r="C10" s="22"/>
+      <c r="D10" s="22">
         <v>166.66651561105462</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="23">
         <v>599.99942865432047</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="23">
         <v>0</v>
       </c>
     </row>
@@ -2621,40 +2656,40 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44" t="s">
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="44" t="s">
+      <c r="E14" s="39" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="40" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="23">
         <v>599.99942865432047</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="23">
         <v>41.666656494140625</v>
       </c>
     </row>
@@ -2667,7 +2702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74410A91-2D92-814C-B795-1522C93EBDA1}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
@@ -2713,10 +2748,10 @@
       </c>
     </row>
     <row r="8" spans="1:15" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="24">
         <f>C7-C13</f>
         <v>43283.233333331867</v>
       </c>
@@ -2726,10 +2761,10 @@
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="34">
         <f>G11+G12</f>
         <v>599.99942865432058</v>
       </c>
@@ -2738,23 +2773,23 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="18">
         <f>K14+L14*G11+(1/2)*M14*G11^2</f>
         <v>13461.093599029387</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="25">
         <v>433.33291304326599</v>
       </c>
       <c r="H11" s="2" t="s">
@@ -2765,26 +2800,26 @@
       </c>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="19">
         <f>K15+L15*G12+(1/2)*M15*G12^2</f>
         <v>5755.5492615728617</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="15">
         <v>166.66651561105462</v>
       </c>
       <c r="H12" s="2" t="s">
@@ -2810,17 +2845,17 @@
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="20">
         <f>SUM(C11:C12)</f>
         <v>19216.642860602249</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="14">
         <v>599.99942865432047</v>
       </c>
       <c r="H13" s="2" t="s">
@@ -2851,8 +2886,8 @@
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="E14" s="15" t="s">
+      <c r="C14" s="20"/>
+      <c r="E14" s="13" t="s">
         <v>79</v>
       </c>
       <c r="G14" s="6">
@@ -2886,20 +2921,20 @@
       </c>
     </row>
     <row r="15" spans="1:15" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="18">
         <f>G14*G11</f>
         <v>18055.560734294282</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="13" t="s">
         <v>84</v>
       </c>
       <c r="G15" s="6">
@@ -2932,20 +2967,20 @@
       </c>
     </row>
     <row r="16" spans="1:15" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="19">
         <f>G14*G12</f>
         <v>6944.4468777014972</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="13" t="s">
         <v>85</v>
       </c>
       <c r="G16" s="6">
@@ -2962,14 +2997,14 @@
       <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="20">
         <f>SUM(C15:C16)</f>
         <v>25000.007611995781</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="13" t="s">
         <v>86</v>
       </c>
       <c r="G17" s="6">
@@ -2986,8 +3021,8 @@
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="E18" s="15" t="s">
+      <c r="C18" s="20"/>
+      <c r="E18" s="13" t="s">
         <v>87</v>
       </c>
       <c r="G18" s="6">
@@ -2996,58 +3031,58 @@
       <c r="H18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:12" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="18">
         <f>C15-C11</f>
         <v>4594.4671352648948</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="41" t="s">
+      <c r="J19" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="17">
         <f>database!C20</f>
         <v>166.66640000000001</v>
       </c>
-      <c r="L19" s="19" t="str">
+      <c r="L19" s="17" t="str">
         <f>database!D20</f>
         <v>$/MWh</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="19">
         <f>C16-C12</f>
         <v>1188.8976161286355</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="19" t="s">
+      <c r="J20" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="17">
         <f>database!C21</f>
         <v>-0.20833300000000002</v>
       </c>
-      <c r="L20" s="19" t="str">
+      <c r="L20" s="17" t="str">
         <f>database!D21</f>
         <v>$/MW2h</v>
       </c>
@@ -3059,7 +3094,7 @@
       <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="20">
         <f>SUM(C19:C20)</f>
         <v>5783.3647513935302</v>
       </c>
@@ -3072,7 +3107,7 @@
       <c r="A23" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="13" t="s">
         <v>79</v>
       </c>
       <c r="G23" s="2">
@@ -3118,17 +3153,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="21" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3138,66 +3173,66 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="39" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="40" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="22">
         <v>400</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="22">
         <v>3.9188804626464844</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24">
+      <c r="C10" s="22"/>
+      <c r="D10" s="22">
         <v>189.18857995004876</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="23">
         <v>589.18857995004885</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="23">
         <v>0</v>
       </c>
     </row>
@@ -3207,40 +3242,40 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44" t="s">
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="44" t="s">
+      <c r="E14" s="39" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="40" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="23">
         <v>589.18857995004885</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="23">
         <v>43.918869018554688</v>
       </c>
     </row>
@@ -3253,15 +3288,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C384EF9-E91F-8542-8A37-B7671B601502}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.33203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="2.1640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="4" customWidth="1"/>
     <col min="4" max="4" width="7.1640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="6.6640625" style="4" customWidth="1"/>
     <col min="6" max="6" width="2" style="4" customWidth="1"/>
@@ -3302,10 +3337,10 @@
       </c>
     </row>
     <row r="8" spans="1:15" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="24">
         <f>C7-C13</f>
         <v>43217.918758203276</v>
       </c>
@@ -3318,10 +3353,10 @@
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="34">
         <f>G11+G12</f>
         <v>589.18857995004873</v>
       </c>
@@ -3330,23 +3365,23 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="18">
         <f>K14+L14*G11+(1/2)*M14*G11^2</f>
         <v>12100</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="25">
         <v>400</v>
       </c>
       <c r="H11" s="2" t="s">
@@ -3357,26 +3392,26 @@
       </c>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="19">
         <f>K15+L15*G12+(1/2)*M15*G12^2</f>
         <v>6719.3304379270194</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="15">
         <v>189.18857995004876</v>
       </c>
       <c r="H12" s="2" t="s">
@@ -3402,17 +3437,17 @@
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="20">
         <f>SUM(C11:C12)</f>
         <v>18819.330437927019</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="14">
         <v>589.18857995004885</v>
       </c>
       <c r="H13" s="2" t="s">
@@ -3443,8 +3478,8 @@
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="E14" s="15" t="s">
+      <c r="C14" s="20"/>
+      <c r="E14" s="13" t="s">
         <v>79</v>
       </c>
       <c r="G14" s="6">
@@ -3478,20 +3513,20 @@
       </c>
     </row>
     <row r="15" spans="1:15" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="18">
         <f>G14*G11</f>
         <v>17567.590229306592</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="13" t="s">
         <v>84</v>
       </c>
       <c r="G15" s="6">
@@ -3525,20 +3560,20 @@
       </c>
     </row>
     <row r="16" spans="1:15" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="19">
         <f>G14*G12</f>
         <v>8308.9686215671645</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="13" t="s">
         <v>85</v>
       </c>
       <c r="G16" s="6">
@@ -3555,14 +3590,14 @@
       <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="20">
         <f>SUM(C15:C16)</f>
         <v>25876.558850873756</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="13" t="s">
         <v>86</v>
       </c>
       <c r="G17" s="6">
@@ -3579,8 +3614,8 @@
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="E18" s="15" t="s">
+      <c r="C18" s="20"/>
+      <c r="E18" s="13" t="s">
         <v>87</v>
       </c>
       <c r="G18" s="6">
@@ -3589,58 +3624,58 @@
       <c r="H18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:12" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="18">
         <f>C15-C11</f>
         <v>5467.5902293065919</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="41" t="s">
+      <c r="J19" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="17">
         <f>database!C20</f>
         <v>166.66640000000001</v>
       </c>
-      <c r="L19" s="19" t="str">
+      <c r="L19" s="17" t="str">
         <f>database!D20</f>
         <v>$/MWh</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="19">
         <f>C16-C12</f>
         <v>1589.6381836401451</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="19" t="s">
+      <c r="J20" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="17">
         <f>database!C21</f>
         <v>-0.20833300000000002</v>
       </c>
-      <c r="L20" s="19" t="str">
+      <c r="L20" s="17" t="str">
         <f>database!D21</f>
         <v>$/MW2h</v>
       </c>
@@ -3652,7 +3687,7 @@
       <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="20">
         <f>SUM(C19:C20)</f>
         <v>7057.2284129467371</v>
       </c>
@@ -3660,27 +3695,60 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="2">
+        <f>K19*G13-0.5*K20*G13^2</f>
+        <v>134358.62988664338</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="20">
+        <f>C23-C13</f>
+        <v>115539.29944871637</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E28" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G28" s="2">
         <f>'Sensitivity Report 2'!E16</f>
         <v>43.918869018554688</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3697,7 +3765,7 @@
   <dimension ref="A1:AE35"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3710,7 +3778,7 @@
     <col min="6" max="7" width="5.1640625" style="4" customWidth="1"/>
     <col min="8" max="17" width="4" style="4" customWidth="1"/>
     <col min="18" max="18" width="6.1640625" style="4" customWidth="1"/>
-    <col min="19" max="19" width="6" style="34" customWidth="1"/>
+    <col min="19" max="19" width="6" style="29" customWidth="1"/>
     <col min="20" max="20" width="5.1640625" style="4" customWidth="1"/>
     <col min="21" max="21" width="9.1640625" style="4" customWidth="1"/>
     <col min="22" max="22" width="4" style="4" customWidth="1"/>
@@ -3722,25 +3790,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="S1" s="31"/>
+      <c r="S1" s="26"/>
     </row>
     <row r="2" spans="1:31" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="H2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="S2" s="31"/>
+      <c r="S2" s="26"/>
     </row>
     <row r="3" spans="1:31" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="H3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="S3" s="31"/>
+      <c r="S3" s="26"/>
     </row>
     <row r="4" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="S4" s="31"/>
+      <c r="S4" s="26"/>
     </row>
     <row r="5" spans="1:31" s="3" customFormat="1" ht="5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="S5" s="32"/>
+      <c r="S5" s="27"/>
     </row>
     <row r="6" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -3777,7 +3845,7 @@
         <f>L6</f>
         <v>11</v>
       </c>
-      <c r="S6" s="31"/>
+      <c r="S6" s="26"/>
     </row>
     <row r="7" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -3790,59 +3858,59 @@
       <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="R7" s="37" t="s">
+      <c r="R7" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="S7" s="31" t="s">
+      <c r="S7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="U7" s="14" t="s">
+      <c r="U7" s="51" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="24">
         <f>C7-C17</f>
         <v>43217.918758225736</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="48">
         <f>AC16</f>
         <v>0.05</v>
       </c>
-      <c r="F8" s="12">
-        <v>0</v>
-      </c>
-      <c r="G8" s="12">
-        <v>0</v>
-      </c>
-      <c r="H8" s="12">
+      <c r="F8" s="30">
+        <v>0</v>
+      </c>
+      <c r="G8" s="30">
+        <v>0</v>
+      </c>
+      <c r="H8" s="48">
         <v>-1</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="48">
         <v>-1</v>
       </c>
-      <c r="J8" s="28">
-        <v>0</v>
-      </c>
-      <c r="K8" s="16">
+      <c r="J8" s="30">
+        <v>0</v>
+      </c>
+      <c r="K8" s="48">
         <v>-1</v>
       </c>
-      <c r="L8" s="16">
-        <v>0</v>
-      </c>
-      <c r="M8" s="29">
-        <v>0</v>
-      </c>
-      <c r="N8" s="29">
+      <c r="L8" s="30">
+        <v>0</v>
+      </c>
+      <c r="M8" s="30">
+        <v>0</v>
+      </c>
+      <c r="N8" s="30">
         <v>0</v>
       </c>
       <c r="O8" s="30">
@@ -3854,51 +3922,51 @@
       <c r="Q8" s="2">
         <v>1</v>
       </c>
-      <c r="R8" s="36">
+      <c r="R8" s="31">
         <v>400.00000000001381</v>
       </c>
-      <c r="S8" s="31" t="s">
+      <c r="S8" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="U8" s="48">
+      <c r="U8" s="43">
         <f t="array" ref="U8:U15">MMULT(E8:P15,R8:R19)</f>
         <v>-20.000000000000732</v>
       </c>
-      <c r="X8" s="49">
+      <c r="X8" s="44">
         <f>-AB16</f>
         <v>-20</v>
       </c>
     </row>
     <row r="9" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E9" s="12">
-        <v>0</v>
-      </c>
-      <c r="F9" s="13">
+      <c r="E9" s="30">
+        <v>0</v>
+      </c>
+      <c r="F9" s="49">
         <f>AC17</f>
         <v>0.1</v>
       </c>
-      <c r="G9" s="13">
-        <v>0</v>
-      </c>
-      <c r="H9" s="12">
+      <c r="G9" s="47">
+        <v>0</v>
+      </c>
+      <c r="H9" s="48">
         <v>-1</v>
       </c>
-      <c r="I9" s="28">
-        <v>0</v>
-      </c>
-      <c r="J9" s="28">
+      <c r="I9" s="30">
+        <v>0</v>
+      </c>
+      <c r="J9" s="48">
         <v>-1</v>
       </c>
-      <c r="K9" s="16">
-        <v>0</v>
-      </c>
-      <c r="L9" s="16">
+      <c r="K9" s="30">
+        <v>0</v>
+      </c>
+      <c r="L9" s="48">
         <v>-1</v>
       </c>
-      <c r="M9" s="29">
-        <v>0</v>
-      </c>
-      <c r="N9" s="29">
+      <c r="M9" s="30">
+        <v>0</v>
+      </c>
+      <c r="N9" s="30">
         <v>0</v>
       </c>
       <c r="O9" s="30">
@@ -3910,50 +3978,50 @@
       <c r="Q9" s="2">
         <v>2</v>
       </c>
-      <c r="R9" s="36">
+      <c r="R9" s="31">
         <v>189.18896128535431</v>
       </c>
-      <c r="S9" s="31" t="s">
+      <c r="S9" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="U9" s="48">
+      <c r="U9" s="43">
         <v>-24.999999999999996</v>
       </c>
-      <c r="X9" s="49">
+      <c r="X9" s="44">
         <f>-AB17</f>
         <v>-25</v>
       </c>
     </row>
     <row r="10" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E10" s="12">
-        <v>0</v>
-      </c>
-      <c r="F10" s="13">
-        <v>0</v>
-      </c>
-      <c r="G10" s="13">
+      <c r="E10" s="30">
+        <v>0</v>
+      </c>
+      <c r="F10" s="47">
+        <v>0</v>
+      </c>
+      <c r="G10" s="49">
         <f>AA23</f>
         <v>-0.20833300000000002</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="48">
         <v>-1</v>
       </c>
-      <c r="I10" s="28">
-        <v>0</v>
-      </c>
-      <c r="J10" s="28">
-        <v>0</v>
-      </c>
-      <c r="K10" s="16">
-        <v>0</v>
-      </c>
-      <c r="L10" s="16">
-        <v>0</v>
-      </c>
-      <c r="M10" s="29">
-        <v>0</v>
-      </c>
-      <c r="N10" s="29">
+      <c r="I10" s="30">
+        <v>0</v>
+      </c>
+      <c r="J10" s="30">
+        <v>0</v>
+      </c>
+      <c r="K10" s="30">
+        <v>0</v>
+      </c>
+      <c r="L10" s="30">
+        <v>0</v>
+      </c>
+      <c r="M10" s="30">
+        <v>0</v>
+      </c>
+      <c r="N10" s="30">
         <v>0</v>
       </c>
       <c r="O10" s="30">
@@ -3965,49 +4033,49 @@
       <c r="Q10" s="2">
         <v>3</v>
       </c>
-      <c r="R10" s="36">
+      <c r="R10" s="31">
         <v>589.18896128536801</v>
       </c>
-      <c r="S10" s="31" t="s">
+      <c r="S10" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="U10" s="48">
+      <c r="U10" s="43">
         <v>-166.66640000000001</v>
       </c>
-      <c r="X10" s="49">
+      <c r="X10" s="44">
         <f>-AA22</f>
         <v>-166.66640000000001</v>
       </c>
     </row>
     <row r="11" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E11" s="12">
+      <c r="E11" s="48">
         <v>-1</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="50">
         <v>-1</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="50">
         <v>1</v>
       </c>
-      <c r="H11" s="12">
-        <v>0</v>
-      </c>
-      <c r="I11" s="28">
-        <v>0</v>
-      </c>
-      <c r="J11" s="28">
-        <v>0</v>
-      </c>
-      <c r="K11" s="16">
-        <v>0</v>
-      </c>
-      <c r="L11" s="16">
-        <v>0</v>
-      </c>
-      <c r="M11" s="29">
-        <v>0</v>
-      </c>
-      <c r="N11" s="29">
+      <c r="H11" s="30">
+        <v>0</v>
+      </c>
+      <c r="I11" s="30">
+        <v>0</v>
+      </c>
+      <c r="J11" s="30">
+        <v>0</v>
+      </c>
+      <c r="K11" s="30">
+        <v>0</v>
+      </c>
+      <c r="L11" s="30">
+        <v>0</v>
+      </c>
+      <c r="M11" s="30">
+        <v>0</v>
+      </c>
+      <c r="N11" s="30">
         <v>0</v>
       </c>
       <c r="O11" s="30">
@@ -4019,129 +4087,129 @@
       <c r="Q11" s="2">
         <v>4</v>
       </c>
-      <c r="R11" s="36">
+      <c r="R11" s="31">
         <v>43.91889612853543</v>
       </c>
-      <c r="S11" s="33" t="s">
+      <c r="S11" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="U11" s="48">
+      <c r="U11" s="43">
         <v>-1.1368683772161603E-13</v>
       </c>
-      <c r="X11" s="49">
+      <c r="X11" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E12" s="35">
+      <c r="E12" s="48">
         <v>1</v>
       </c>
-      <c r="F12" s="35">
-        <v>0</v>
-      </c>
-      <c r="G12" s="35">
-        <v>0</v>
-      </c>
-      <c r="H12" s="35">
-        <v>0</v>
-      </c>
-      <c r="I12" s="35">
-        <v>0</v>
-      </c>
-      <c r="J12" s="35">
-        <v>0</v>
-      </c>
-      <c r="K12" s="35">
-        <v>0</v>
-      </c>
-      <c r="L12" s="35">
-        <v>0</v>
-      </c>
-      <c r="M12" s="35">
+      <c r="F12" s="30">
+        <v>0</v>
+      </c>
+      <c r="G12" s="30">
+        <v>0</v>
+      </c>
+      <c r="H12" s="30">
+        <v>0</v>
+      </c>
+      <c r="I12" s="30">
+        <v>0</v>
+      </c>
+      <c r="J12" s="30">
+        <v>0</v>
+      </c>
+      <c r="K12" s="30">
+        <v>0</v>
+      </c>
+      <c r="L12" s="30">
+        <v>0</v>
+      </c>
+      <c r="M12" s="48">
         <v>1</v>
       </c>
-      <c r="N12" s="35">
-        <v>0</v>
-      </c>
-      <c r="O12" s="35">
-        <v>0</v>
-      </c>
-      <c r="P12" s="35">
+      <c r="N12" s="30">
+        <v>0</v>
+      </c>
+      <c r="O12" s="30">
+        <v>0</v>
+      </c>
+      <c r="P12" s="30">
         <v>0</v>
       </c>
       <c r="Q12" s="2">
         <v>5</v>
       </c>
-      <c r="R12" s="36">
+      <c r="R12" s="31">
         <v>-3.9188961285340058</v>
       </c>
-      <c r="S12" s="33" t="s">
+      <c r="S12" s="28" t="s">
         <v>57</v>
       </c>
       <c r="T12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="U12" s="48">
+      <c r="U12" s="43">
         <v>399.99999999999056</v>
       </c>
-      <c r="X12" s="49">
+      <c r="X12" s="44">
         <f>AE16</f>
         <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E13" s="35">
-        <v>0</v>
-      </c>
-      <c r="F13" s="35">
+      <c r="E13" s="30">
+        <v>0</v>
+      </c>
+      <c r="F13" s="48">
         <v>1</v>
       </c>
-      <c r="G13" s="35">
-        <v>0</v>
-      </c>
-      <c r="H13" s="35">
-        <v>0</v>
-      </c>
-      <c r="I13" s="35">
-        <v>0</v>
-      </c>
-      <c r="J13" s="35">
-        <v>0</v>
-      </c>
-      <c r="K13" s="35">
-        <v>0</v>
-      </c>
-      <c r="L13" s="35">
-        <v>0</v>
-      </c>
-      <c r="M13" s="35">
-        <v>0</v>
-      </c>
-      <c r="N13" s="35">
+      <c r="G13" s="30">
+        <v>0</v>
+      </c>
+      <c r="H13" s="30">
+        <v>0</v>
+      </c>
+      <c r="I13" s="30">
+        <v>0</v>
+      </c>
+      <c r="J13" s="30">
+        <v>0</v>
+      </c>
+      <c r="K13" s="30">
+        <v>0</v>
+      </c>
+      <c r="L13" s="30">
+        <v>0</v>
+      </c>
+      <c r="M13" s="30">
+        <v>0</v>
+      </c>
+      <c r="N13" s="48">
         <v>1</v>
       </c>
-      <c r="O13" s="35">
-        <v>0</v>
-      </c>
-      <c r="P13" s="35">
+      <c r="O13" s="30">
+        <v>0</v>
+      </c>
+      <c r="P13" s="30">
         <v>0</v>
       </c>
       <c r="Q13" s="2">
         <v>6</v>
       </c>
-      <c r="R13" s="36">
-        <v>0</v>
-      </c>
-      <c r="S13" s="33" t="s">
+      <c r="R13" s="31">
+        <v>0</v>
+      </c>
+      <c r="S13" s="28" t="s">
         <v>58</v>
       </c>
       <c r="T13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="U13" s="48">
+      <c r="U13" s="43">
         <v>300</v>
       </c>
-      <c r="X13" s="49">
+      <c r="X13" s="44">
         <f>AE17</f>
         <v>300</v>
       </c>
@@ -4153,61 +4221,61 @@
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14" s="48">
         <v>1</v>
       </c>
-      <c r="F14" s="35">
-        <v>0</v>
-      </c>
-      <c r="G14" s="35">
-        <v>0</v>
-      </c>
-      <c r="H14" s="35">
-        <v>0</v>
-      </c>
-      <c r="I14" s="35">
-        <v>0</v>
-      </c>
-      <c r="J14" s="35">
-        <v>0</v>
-      </c>
-      <c r="K14" s="35">
-        <v>0</v>
-      </c>
-      <c r="L14" s="35">
-        <v>0</v>
-      </c>
-      <c r="M14" s="35">
-        <v>0</v>
-      </c>
-      <c r="N14" s="35">
-        <v>0</v>
-      </c>
-      <c r="O14" s="35">
+      <c r="F14" s="30">
+        <v>0</v>
+      </c>
+      <c r="G14" s="30">
+        <v>0</v>
+      </c>
+      <c r="H14" s="30">
+        <v>0</v>
+      </c>
+      <c r="I14" s="30">
+        <v>0</v>
+      </c>
+      <c r="J14" s="30">
+        <v>0</v>
+      </c>
+      <c r="K14" s="30">
+        <v>0</v>
+      </c>
+      <c r="L14" s="30">
+        <v>0</v>
+      </c>
+      <c r="M14" s="30">
+        <v>0</v>
+      </c>
+      <c r="N14" s="30">
+        <v>0</v>
+      </c>
+      <c r="O14" s="48">
         <v>-1</v>
       </c>
-      <c r="P14" s="35">
+      <c r="P14" s="30">
         <v>0</v>
       </c>
       <c r="Q14" s="2">
         <v>7</v>
       </c>
-      <c r="R14" s="36">
-        <v>0</v>
-      </c>
-      <c r="S14" s="33" t="s">
+      <c r="R14" s="31">
+        <v>0</v>
+      </c>
+      <c r="S14" s="28" t="s">
         <v>57</v>
       </c>
       <c r="T14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="U14" s="48">
+      <c r="U14" s="43">
         <v>0</v>
       </c>
       <c r="V14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="X14" s="49">
+      <c r="X14" s="44">
         <f>AD16</f>
         <v>0</v>
       </c>
@@ -4225,71 +4293,71 @@
       </c>
     </row>
     <row r="15" spans="1:31" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="18">
         <f>AA16+AB16*T21+(1/2)*AC16*T21^2</f>
         <v>12100.000000000553</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="35">
-        <v>0</v>
-      </c>
-      <c r="F15" s="35">
+      <c r="E15" s="30">
+        <v>0</v>
+      </c>
+      <c r="F15" s="48">
         <v>1</v>
       </c>
-      <c r="G15" s="35">
-        <v>0</v>
-      </c>
-      <c r="H15" s="35">
-        <v>0</v>
-      </c>
-      <c r="I15" s="35">
-        <v>0</v>
-      </c>
-      <c r="J15" s="35">
-        <v>0</v>
-      </c>
-      <c r="K15" s="35">
-        <v>0</v>
-      </c>
-      <c r="L15" s="35">
-        <v>0</v>
-      </c>
-      <c r="M15" s="35">
-        <v>0</v>
-      </c>
-      <c r="N15" s="35">
-        <v>0</v>
-      </c>
-      <c r="O15" s="35">
-        <v>0</v>
-      </c>
-      <c r="P15" s="35">
+      <c r="G15" s="30">
+        <v>0</v>
+      </c>
+      <c r="H15" s="30">
+        <v>0</v>
+      </c>
+      <c r="I15" s="30">
+        <v>0</v>
+      </c>
+      <c r="J15" s="30">
+        <v>0</v>
+      </c>
+      <c r="K15" s="30">
+        <v>0</v>
+      </c>
+      <c r="L15" s="30">
+        <v>0</v>
+      </c>
+      <c r="M15" s="30">
+        <v>0</v>
+      </c>
+      <c r="N15" s="30">
+        <v>0</v>
+      </c>
+      <c r="O15" s="30">
+        <v>0</v>
+      </c>
+      <c r="P15" s="48">
         <v>-1</v>
       </c>
       <c r="Q15" s="2">
         <v>8</v>
       </c>
-      <c r="R15" s="36">
-        <v>0</v>
-      </c>
-      <c r="S15" s="33" t="s">
+      <c r="R15" s="31">
+        <v>0</v>
+      </c>
+      <c r="S15" s="28" t="s">
         <v>58</v>
       </c>
       <c r="T15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="U15" s="48">
-        <v>0</v>
-      </c>
-      <c r="X15" s="49">
+      <c r="U15" s="43">
+        <v>0</v>
+      </c>
+      <c r="X15" s="44">
         <f>AD17</f>
         <v>0</v>
       </c>
@@ -4315,13 +4383,13 @@
       </c>
     </row>
     <row r="16" spans="1:31" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="19">
         <f>AA17+AB17*T22+(1/2)*AC17*T22^2</f>
         <v>6719.3471857454224</v>
       </c>
@@ -4331,20 +4399,20 @@
       <c r="Q16" s="2">
         <v>9</v>
       </c>
-      <c r="R16" s="36">
+      <c r="R16" s="31">
         <v>-2.3225372363859294E-11</v>
       </c>
-      <c r="S16" s="33" t="s">
+      <c r="S16" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="T16" s="47"/>
-      <c r="U16" s="50">
+      <c r="T16" s="42"/>
+      <c r="U16" s="45">
         <f>(R8-X12)*R12</f>
         <v>-5.4131519347820552E-11</v>
       </c>
-      <c r="V16" s="47"/>
-      <c r="W16" s="47"/>
-      <c r="X16" s="51">
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="46">
         <v>0</v>
       </c>
       <c r="Z16" s="8">
@@ -4378,7 +4446,7 @@
       <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="20">
         <f>SUM(C15:C16)</f>
         <v>18819.347185745974</v>
       </c>
@@ -4388,20 +4456,20 @@
       <c r="Q17" s="2">
         <v>10</v>
       </c>
-      <c r="R17" s="36">
+      <c r="R17" s="31">
         <v>110.81103871464572</v>
       </c>
-      <c r="S17" s="33" t="s">
+      <c r="S17" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="T17" s="47"/>
-      <c r="U17" s="50">
+      <c r="T17" s="42"/>
+      <c r="U17" s="45">
         <f>(R9-X13)*R13</f>
         <v>0</v>
       </c>
-      <c r="V17" s="47"/>
-      <c r="W17" s="47"/>
-      <c r="X17" s="51">
+      <c r="V17" s="42"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="46">
         <v>0</v>
       </c>
       <c r="Z17" s="9">
@@ -4432,38 +4500,38 @@
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="22"/>
+      <c r="C18" s="20"/>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="Q18" s="2">
         <v>11</v>
       </c>
-      <c r="R18" s="36">
+      <c r="R18" s="31">
         <v>400.00000000001381</v>
       </c>
-      <c r="S18" s="33" t="s">
+      <c r="S18" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="T18" s="47"/>
-      <c r="U18" s="50">
+      <c r="T18" s="42"/>
+      <c r="U18" s="45">
         <f>(R8-X14)*R14</f>
         <v>0</v>
       </c>
-      <c r="V18" s="47"/>
-      <c r="W18" s="47"/>
-      <c r="X18" s="51">
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:31" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="18">
         <f>T24*T21</f>
         <v>17567.558451414778</v>
       </c>
@@ -4476,20 +4544,20 @@
       <c r="Q19" s="2">
         <v>12</v>
       </c>
-      <c r="R19" s="36">
+      <c r="R19" s="31">
         <v>189.18896128535431</v>
       </c>
-      <c r="S19" s="33" t="s">
+      <c r="S19" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="T19" s="47"/>
-      <c r="U19" s="50">
+      <c r="T19" s="42"/>
+      <c r="U19" s="45">
         <f>(R9-X15)*R15</f>
         <v>0</v>
       </c>
-      <c r="V19" s="47"/>
-      <c r="W19" s="47"/>
-      <c r="X19" s="51">
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="46">
         <v>0</v>
       </c>
       <c r="Z19" s="2" t="s">
@@ -4497,13 +4565,13 @@
       </c>
     </row>
     <row r="20" spans="1:31" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="19">
         <f>T24*T22</f>
         <v>8308.9703393569871</v>
       </c>
@@ -4513,10 +4581,10 @@
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U20" s="47"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="47"/>
-      <c r="X20" s="47"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
     </row>
     <row r="21" spans="1:31" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -4525,7 +4593,7 @@
       <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="20">
         <f>SUM(C19:C20)</f>
         <v>25876.528790771765</v>
       </c>
@@ -4535,7 +4603,7 @@
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S21" s="16" t="s">
+      <c r="S21" s="14" t="s">
         <v>13</v>
       </c>
       <c r="T21" s="2">
@@ -4550,11 +4618,11 @@
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="22"/>
+      <c r="C22" s="20"/>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S22" s="16" t="s">
+      <c r="S22" s="14" t="s">
         <v>14</v>
       </c>
       <c r="T22" s="2">
@@ -4564,30 +4632,30 @@
       <c r="U22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Z22" s="41" t="s">
+      <c r="Z22" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="AA22" s="46">
+      <c r="AA22" s="41">
         <f>database!C20</f>
         <v>166.66640000000001</v>
       </c>
-      <c r="AB22" s="46" t="str">
+      <c r="AB22" s="41" t="str">
         <f>database!D20</f>
         <v>$/MWh</v>
       </c>
-      <c r="AC22" s="39">
+      <c r="AC22" s="34">
         <f>AA22</f>
         <v>166.66640000000001</v>
       </c>
     </row>
     <row r="23" spans="1:31" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="18">
         <f>C19-C15</f>
         <v>5467.5584514142247</v>
       </c>
@@ -4610,30 +4678,30 @@
       <c r="U23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Z23" s="19" t="s">
+      <c r="Z23" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="AA23" s="46">
+      <c r="AA23" s="41">
         <f>database!C21</f>
         <v>-0.20833300000000002</v>
       </c>
-      <c r="AB23" s="46" t="str">
+      <c r="AB23" s="41" t="str">
         <f>database!D21</f>
         <v>$/MW2h</v>
       </c>
-      <c r="AC23" s="39">
+      <c r="AC23" s="34">
         <f>AA23</f>
         <v>-0.20833300000000002</v>
       </c>
     </row>
     <row r="24" spans="1:31" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="19">
         <f>C20-C16</f>
         <v>1589.6231536115647</v>
       </c>
@@ -4643,7 +4711,7 @@
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S24" s="15" t="s">
+      <c r="S24" s="13" t="s">
         <v>12</v>
       </c>
       <c r="T24" s="2">
@@ -4661,14 +4729,14 @@
       <c r="B25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="20">
         <f>SUM(C23:C24)</f>
         <v>7057.1816050257894</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S25" s="15" t="s">
+      <c r="S25" s="13" t="s">
         <v>57</v>
       </c>
       <c r="T25" s="2">
@@ -4681,13 +4749,13 @@
     </row>
     <row r="26" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:31" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="18">
         <f>AB16+AC16*T21</f>
         <v>40.000000000000696</v>
       </c>
@@ -4696,13 +4764,13 @@
       </c>
     </row>
     <row r="28" spans="1:31" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="19">
         <f>AB17+AC17*T22</f>
         <v>43.918896128535437</v>
       </c>
@@ -4713,19 +4781,19 @@
     <row r="29" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="S31" s="31"/>
+      <c r="S31" s="26"/>
     </row>
     <row r="32" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="S32" s="31"/>
+      <c r="S32" s="26"/>
     </row>
     <row r="33" spans="19:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="S33" s="31"/>
+      <c r="S33" s="26"/>
     </row>
     <row r="34" spans="19:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="S34" s="31"/>
+      <c r="S34" s="26"/>
     </row>
     <row r="35" spans="19:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="S35" s="31"/>
+      <c r="S35" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/DEE-OPF/E1_Despacho_Economico_Capacidad_Gen_Elastica.xlsx
+++ b/DEE-OPF/E1_Despacho_Economico_Capacidad_Gen_Elastica.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/pm_deoliveiradejes_uniandes_edu_co/Documents/MASEP-OPE/DEE-OPF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes.sharepoint.com/sites/IELE4109-SistemasdeGestindeEnerga/Documentos compartidos/Contenido del Curso/semana 10 - DEE-OPF/proyecto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{3E8FE161-8E47-C040-B8B7-7C18ECA6F38E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F2302BEA-6F23-8748-A79F-8797103A1A00}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5E7B201-0C54-2042-B2F5-094BE4FA9D13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36280" yWindow="1080" windowWidth="31060" windowHeight="19860" activeTab="2" xr2:uid="{4DA1A984-D1F4-6F48-89E4-8555A0E112BF}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" activeTab="4" xr2:uid="{4DA1A984-D1F4-6F48-89E4-8555A0E112BF}"/>
   </bookViews>
   <sheets>
     <sheet name="database" sheetId="1" r:id="rId1"/>
@@ -126,7 +126,7 @@
     <definedName name="solver_ver" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">2</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2702,7 +2702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74410A91-2D92-814C-B795-1522C93EBDA1}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
@@ -3288,8 +3288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C384EF9-E91F-8542-8A37-B7671B601502}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3765,7 +3765,7 @@
   <dimension ref="A1:AE35"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4800,4 +4800,209 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010007192D8D28642E40AE7B2B917DF21BBF" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a2cc84ac15eb50a33062b10fc3bb7aec">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7ebc1fbb-280b-45cf-8e70-f42b5db0300a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e155171a52450e89fe16a76a4ce57ab0" ns2:_="">
+    <xsd:import namespace="7ebc1fbb-280b-45cf-8e70-f42b5db0300a"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7ebc1fbb-280b-45cf-8e70-f42b5db0300a" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="12" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="15" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="16" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BB2C2DC-CA8E-4987-A383-B535AD2C09FC}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8E591CC-CCBE-4934-907B-2402CE987AE9}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2B425AB-E738-4C13-8285-900CED0B97D1}"/>
 </file>